--- a/obliczenia_praca_ospf.xlsx
+++ b/obliczenia_praca_ospf.xlsx
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -937,7 +937,7 @@
         <v>72</v>
       </c>
       <c r="G20" s="11">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7">
         <v>33</v>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="G30">
         <f>SUM($G6:$G25)/20</f>
-        <v>25.85</v>
+        <v>25.65</v>
       </c>
       <c r="H30">
         <f>SUM($H6:$H25)/20</f>
